--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-confidentiality-level</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-contact-confidentiality-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Contact</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-contact-confidentiality-level</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-confidentiality-level</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,14 +332,27 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J222-NiveauConfidentialite-ROR/FHIR/JDV-J222-NiveauConfidentialite-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J222-NiveauConfidentialite-ROR/FHIR/JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
 </sst>
 </file>
@@ -642,7 +655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -651,9 +664,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1277,26 +1290,26 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" s="2"/>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>99</v>
@@ -1314,6 +1327,109 @@
         <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>98</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
+++ b/ig/main/StructureDefinition-ror-contact-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
